--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_0.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,50 +508,246 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>model_1_0_4</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9280303549035559</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7632217789033937</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7083298912203194</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8844957072771308</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2995755690755239</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.583337054736464</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.043287067100307</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4914870293024881</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.535215500807533</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5473349697173787</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9019987811452677</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.5559549483561874</v>
+      </c>
+      <c r="N2" t="n">
+        <v>36.41077715161167</v>
+      </c>
+      <c r="O2" t="n">
+        <v>73.37536073983749</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>model_1_0_3</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9280521792825743</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7631905538668894</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7088647427567565</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8850158727247502</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2994847245152182</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.583545856699347</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.041373934166946</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4892736520801396</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.533032778974958</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5472519753415406</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9020284994486119</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5558706469018938</v>
+      </c>
+      <c r="N3" t="n">
+        <v>36.41138373203086</v>
+      </c>
+      <c r="O3" t="n">
+        <v>73.37596732025668</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>model_1_0_2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9280725064495655</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.76315748477003</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7093992097101758</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8855353814630588</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2994001121399462</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.583766989902315</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.039462176864739</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4870630692483781</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.530839547729168</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5471746632839886</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.902056178995153</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.555792117256719</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36.41194886489552</v>
+      </c>
+      <c r="O4" t="n">
+        <v>73.37653245312134</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>model_1_0_1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9280913256001775</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7631225319574155</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7099332329090906</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8860542579419659</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.299321776923112</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.58400071952121</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.037552006846666</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4848551767693954</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.528636314219455</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5471030770550573</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9020818050725821</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5557194036162421</v>
+      </c>
+      <c r="N5" t="n">
+        <v>36.41247221450884</v>
+      </c>
+      <c r="O5" t="n">
+        <v>73.37705580273466</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>model_1_0_0</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.8827152616926591</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7086363242523124</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6832317782556845</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8306906785693797</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.4882008543353447</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.948350241331152</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.133061561902602</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.6340365723878073</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.351243322391559</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.698713714145747</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8.506223251669816</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.7097177566860747</v>
-      </c>
-      <c r="N2" t="n">
-        <v>131.4340567421096</v>
-      </c>
-      <c r="O2" t="n">
-        <v>272.769229285326</v>
+      <c r="B6" t="n">
+        <v>0.9281086286764146</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7630857276254661</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7104671018556086</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8865724560154367</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2992497524063377</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.584246830258424</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.035642388580471</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4826501710010689</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.526422171269222</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5470372495601535</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9021053667083093</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5556525394040969</v>
+      </c>
+      <c r="N6" t="n">
+        <v>36.41295352385011</v>
+      </c>
+      <c r="O6" t="n">
+        <v>73.37753711207593</v>
       </c>
     </row>
   </sheetData>
